--- a/biology/Botanique/Kerriochloa_siamensis/Kerriochloa_siamensis.xlsx
+++ b/biology/Botanique/Kerriochloa_siamensis/Kerriochloa_siamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Kerriochloa siamensis  est une espèce de  plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Asie tropicale.  C'est l'unique espèce du genre Kerriochloa (genre monotypique).
@@ -513,10 +525,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Kerriochloa » est un hommage à Arthur Francis George Kerr (1877–1942), botaniste et médecin officier irlandais qui explora la flore de Thaïlande, avec le suffixe chloa (χλόα), signifiant herbe en grec[3].
-L'épithète spécifique « siamensis » est un adjectif latin signifiant « du Siam » (actuelle Thaïlande), qui indique la provenance de la plante[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Kerriochloa » est un hommage à Arthur Francis George Kerr (1877–1942), botaniste et médecin officier irlandais qui explora la flore de Thaïlande, avec le suffixe chloa (χλόα), signifiant herbe en grec.
+L'épithète spécifique « siamensis » est un adjectif latin signifiant « du Siam » (actuelle Thaïlande), qui indique la provenance de la plante.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (10 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (10 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Kerriochloa siamensis var. dalatensis A. Camus
 Kerriochloa siamensis var. sabulicola A. Camus
 Kerriochloa siamensis var. siamensis</t>
